--- a/datastatic/datasets/online/SDG3_Reduction_of_Smoking_Prevalence_of_Men_WHO_2015.xlsx
+++ b/datastatic/datasets/online/SDG3_Reduction_of_Smoking_Prevalence_of_Men_WHO_2015.xlsx
@@ -93,7 +93,7 @@
     <t>target$rating</t>
   </si>
   <si>
-    <t>4.99, 14.99, 22.49, 27.49</t>
+    <t>27.49, 22.49, 14.99, 4.99</t>
   </si>
   <si>
     <t>target$explanation$de</t>
@@ -641,9 +641,6 @@
     <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -666,6 +663,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1186,7 +1186,7 @@
       <c r="A17" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C17" s="6"/>
@@ -1242,7 +1242,7 @@
       <c r="A19" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="19" t="s">
         <v>30</v>
       </c>
       <c r="C19" s="6"/>
@@ -1270,7 +1270,7 @@
       <c r="A20" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="19" t="s">
         <v>32</v>
       </c>
       <c r="C20" s="6"/>
@@ -1329,7 +1329,7 @@
       <c r="B22" s="5">
         <v>3.4</v>
       </c>
-      <c r="C22" s="21"/>
+      <c r="C22" s="20"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="2"/>
@@ -1431,10 +1431,10 @@
       <c r="V25" s="3"/>
     </row>
     <row r="26" ht="35.25" customHeight="1">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="23"/>
+      <c r="B26" s="22"/>
       <c r="C26" s="6"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
@@ -1488,7 +1488,7 @@
       <c r="A28" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="23">
+      <c r="B28" s="22">
         <v>42369.0</v>
       </c>
       <c r="C28" s="7"/>
@@ -1516,7 +1516,7 @@
       <c r="A29" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="24"/>
+      <c r="B29" s="23"/>
       <c r="C29" s="10"/>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
@@ -1539,7 +1539,7 @@
       <c r="V29" s="3"/>
     </row>
     <row r="30" ht="21.0" customHeight="1">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="24" t="s">
         <v>45</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -1567,7 +1567,7 @@
       <c r="V30" s="3"/>
     </row>
     <row r="31" ht="22.5" customHeight="1">
-      <c r="A31" s="25" t="s">
+      <c r="A31" s="24" t="s">
         <v>47</v>
       </c>
       <c r="B31" s="7"/>
@@ -1593,7 +1593,7 @@
       <c r="V31" s="3"/>
     </row>
     <row r="32" ht="18.0" customHeight="1">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="24" t="s">
         <v>48</v>
       </c>
       <c r="B32" s="7" t="s">
@@ -1621,10 +1621,10 @@
       <c r="V32" s="3"/>
     </row>
     <row r="33" ht="18.0" customHeight="1">
-      <c r="A33" s="25" t="s">
+      <c r="A33" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B33" s="26" t="s">
+      <c r="B33" s="25" t="s">
         <v>51</v>
       </c>
       <c r="C33" s="7"/>
@@ -1649,13 +1649,13 @@
       <c r="V33" s="3"/>
     </row>
     <row r="34" ht="20.25" customHeight="1">
-      <c r="A34" s="25" t="s">
+      <c r="A34" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="B34" s="27" t="s">
+      <c r="B34" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="19"/>
+      <c r="C34" s="27"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="2"/>
@@ -1677,7 +1677,7 @@
       <c r="V34" s="3"/>
     </row>
     <row r="35" ht="21.0" customHeight="1">
-      <c r="A35" s="25" t="s">
+      <c r="A35" s="24" t="s">
         <v>54</v>
       </c>
       <c r="B35" s="7" t="s">
@@ -1705,10 +1705,10 @@
       <c r="V35" s="3"/>
     </row>
     <row r="36" ht="24.0" customHeight="1">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="B36" s="26" t="str">
+      <c r="B36" s="25" t="str">
         <f>HYPERLINK("http://www.who.int/about/copyright/en/","copyright World Health Organization (http://www.who.int/about/copyright/en/)")</f>
         <v>copyright World Health Organization (http://www.who.int/about/copyright/en/)</v>
       </c>
@@ -1761,10 +1761,10 @@
     </row>
     <row r="38" ht="17.25" customHeight="1">
       <c r="A38" s="17"/>
-      <c r="B38" s="19">
+      <c r="B38" s="27">
         <v>2015.0</v>
       </c>
-      <c r="C38" s="19"/>
+      <c r="C38" s="27"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="2"/>
@@ -1814,7 +1814,7 @@
       <c r="V39" s="3"/>
     </row>
     <row r="40" ht="17.25" customHeight="1">
-      <c r="A40" s="19" t="s">
+      <c r="A40" s="27" t="s">
         <v>59</v>
       </c>
       <c r="B40" s="3">
